--- a/testfiles/sheetjs.xlsx
+++ b/testfiles/sheetjs.xlsx
@@ -1,19 +1,266 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\Workplace\492Capstone\WebEvents\testfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817A85C0-0DBF-42B9-A304-6318D56F054A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>February 28  8-10 AM</t>
+  </si>
+  <si>
+    <t>February 28  10-12 AM</t>
+  </si>
+  <si>
+    <t>February 28  12-2 PM</t>
+  </si>
+  <si>
+    <t>February 28  2-4 PM</t>
+  </si>
+  <si>
+    <t>February 28  4-6 PM</t>
+  </si>
+  <si>
+    <t>February 28  6-8 PM</t>
+  </si>
+  <si>
+    <t>February 28  8-10 PM</t>
+  </si>
+  <si>
+    <t>March 1  8-10 AM</t>
+  </si>
+  <si>
+    <t>March 1  10-12 AM</t>
+  </si>
+  <si>
+    <t>March 1  12-2 PM</t>
+  </si>
+  <si>
+    <t>March 1  2-4 PM</t>
+  </si>
+  <si>
+    <t>March 1  4-6 PM</t>
+  </si>
+  <si>
+    <t>March 1  6-8 PM</t>
+  </si>
+  <si>
+    <t>March 1  8-10 PM</t>
+  </si>
+  <si>
+    <t>March 2  8-10 AM</t>
+  </si>
+  <si>
+    <t>March 2  10-12 AM</t>
+  </si>
+  <si>
+    <t>March 2  12-2 PM</t>
+  </si>
+  <si>
+    <t>March 2  2-4 PM</t>
+  </si>
+  <si>
+    <t>March 2  4-6 PM</t>
+  </si>
+  <si>
+    <t>March 2  6-8 PM</t>
+  </si>
+  <si>
+    <t>March 2  8-10 PM</t>
+  </si>
+  <si>
+    <t>March 3  8-10 AM</t>
+  </si>
+  <si>
+    <t>March 3  10-12 AM</t>
+  </si>
+  <si>
+    <t>March 3  12-2 PM</t>
+  </si>
+  <si>
+    <t>March 3  2-4 PM</t>
+  </si>
+  <si>
+    <t>March 3  4-6 PM</t>
+  </si>
+  <si>
+    <t>March 3  6-8 PM</t>
+  </si>
+  <si>
+    <t>March 3  8-10 PM</t>
+  </si>
+  <si>
+    <t>March 4  8-10 AM</t>
+  </si>
+  <si>
+    <t>March 4  10-12 AM</t>
+  </si>
+  <si>
+    <t>March 4  12-2 PM</t>
+  </si>
+  <si>
+    <t>March 4  2-4 PM</t>
+  </si>
+  <si>
+    <t>March 4  4-6 PM</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Nickos</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Penders</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Pullman</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Connell</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Schooler</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Ulmer</t>
+  </si>
+  <si>
+    <t>Hailey</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Katy</t>
+  </si>
+  <si>
+    <t>Patton</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Diner</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Brianna</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Pettey</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Monero</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +297,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,125 +629,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>First name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Last name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>February 28  8-10 AM</v>
-      </c>
-      <c r="D1" t="str">
-        <v>February 28  10-12 AM</v>
-      </c>
-      <c r="E1" t="str">
-        <v>February 28  12-2 PM</v>
-      </c>
-      <c r="F1" t="str">
-        <v>February 28  2-4 PM</v>
-      </c>
-      <c r="G1" t="str">
-        <v>February 28  4-6 PM</v>
-      </c>
-      <c r="H1" t="str">
-        <v>February 28  6-8 PM</v>
-      </c>
-      <c r="I1" t="str">
-        <v>February 28  8-10 PM</v>
-      </c>
-      <c r="J1" t="str">
-        <v>March 1  8-10 AM</v>
-      </c>
-      <c r="K1" t="str">
-        <v>March 1  10-12 AM</v>
-      </c>
-      <c r="L1" t="str">
-        <v>March 1  12-2 PM</v>
-      </c>
-      <c r="M1" t="str">
-        <v>March 1  2-4 PM</v>
-      </c>
-      <c r="N1" t="str">
-        <v>March 1  4-6 PM</v>
-      </c>
-      <c r="O1" t="str">
-        <v>March 1  6-8 PM</v>
-      </c>
-      <c r="P1" t="str">
-        <v>March 1  8-10 PM</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>March 2  8-10 AM</v>
-      </c>
-      <c r="R1" t="str">
-        <v>March 2  10-12 AM</v>
-      </c>
-      <c r="S1" t="str">
-        <v>March 2  12-2 PM</v>
-      </c>
-      <c r="T1" t="str">
-        <v>March 2  2-4 PM</v>
-      </c>
-      <c r="U1" t="str">
-        <v>March 2  4-6 PM</v>
-      </c>
-      <c r="V1" t="str">
-        <v>March 2  6-8 PM</v>
-      </c>
-      <c r="W1" t="str">
-        <v>March 2  8-10 PM</v>
-      </c>
-      <c r="X1" t="str">
-        <v>March 3  8-10 AM</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>March 3  10-12 AM</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>March 3  12-2 PM</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>March 3  2-4 PM</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>March 3  4-6 PM</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>March 3  6-8 PM</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>March 3  8-10 PM</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>March 4  8-10 AM</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>March 4  10-12 AM</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>March 4  12-2 PM</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>March 4  2-4 PM</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>March 4  4-6 PM</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Savannah</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Nickos</v>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -519,12 +777,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Riley</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Penders</v>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -551,12 +809,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Quinn</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Murphy</v>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -586,12 +844,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>John</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pullman</v>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -618,12 +876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Nicholas</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Green</v>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -653,12 +911,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Joseph</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Smith</v>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -685,12 +943,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Samantha</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Connell</v>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -717,20 +975,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Connor</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Schooler</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Kate</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Ford</v>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -757,12 +1015,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Michael</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Ulmer</v>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -795,12 +1053,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Hailey</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Young</v>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -833,12 +1091,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Mary</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Katy</v>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -865,12 +1123,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>John</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Patton</v>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -897,12 +1155,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Nicole</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Diner</v>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -929,20 +1187,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Casey</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Hamilton</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Benjamin</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Green</v>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -969,12 +1227,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Kelsey</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Dalton</v>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -1010,12 +1268,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Brianna</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Black</v>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1063,12 +1321,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Nicholas</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Pettey</v>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1095,12 +1353,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Brooke</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Sanders</v>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1127,12 +1385,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Olivia</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Monero</v>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
       </c>
       <c r="N22">
         <v>8</v>
@@ -1168,12 +1426,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Taylor</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Scott</v>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1203,12 +1461,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Michael</v>
-      </c>
-      <c r="B24" t="str">
-        <v>May</v>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -1235,12 +1493,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Caroline</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Nicholas</v>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1280,8 +1538,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI25"/>
+    <ignoredError sqref="A1:AI25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testfiles/sheetjs.xlsx
+++ b/testfiles/sheetjs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\Workplace\492Capstone\WebEvents\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817A85C0-0DBF-42B9-A304-6318D56F054A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D50336-DB5B-4E77-B1B4-ACA7C68DD799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
